--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H2">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>1353.608516232834</v>
+        <v>1571.528173100076</v>
       </c>
       <c r="R2">
-        <v>1353.608516232834</v>
+        <v>14143.75355790068</v>
       </c>
       <c r="S2">
-        <v>0.2064600707180297</v>
+        <v>0.2037509456163232</v>
       </c>
       <c r="T2">
-        <v>0.2064600707180297</v>
+        <v>0.2037509456163231</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H3">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>1393.750483742733</v>
+        <v>1516.847299216254</v>
       </c>
       <c r="R3">
-        <v>1393.750483742733</v>
+        <v>13651.62569294629</v>
       </c>
       <c r="S3">
-        <v>0.2125827519448883</v>
+        <v>0.1966614896640461</v>
       </c>
       <c r="T3">
-        <v>0.2125827519448883</v>
+        <v>0.196661489664046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H4">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>767.4929999341806</v>
+        <v>971.0726183989619</v>
       </c>
       <c r="R4">
-        <v>767.4929999341806</v>
+        <v>8739.653565590657</v>
       </c>
       <c r="S4">
-        <v>0.1170623981319187</v>
+        <v>0.1259009972889031</v>
       </c>
       <c r="T4">
-        <v>0.1170623981319187</v>
+        <v>0.1259009972889031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H5">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>264.180373102371</v>
+        <v>306.9728943641107</v>
       </c>
       <c r="R5">
-        <v>264.180373102371</v>
+        <v>2762.756049276996</v>
       </c>
       <c r="S5">
-        <v>0.04029429326052578</v>
+        <v>0.03979948853343547</v>
       </c>
       <c r="T5">
-        <v>0.04029429326052578</v>
+        <v>0.03979948853343545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H6">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>487.4505322383365</v>
+        <v>529.5486350631555</v>
       </c>
       <c r="R6">
-        <v>487.4505322383365</v>
+        <v>4765.937715568401</v>
       </c>
       <c r="S6">
-        <v>0.07434872797457878</v>
+        <v>0.06865676161001304</v>
       </c>
       <c r="T6">
-        <v>0.07434872797457878</v>
+        <v>0.06865676161001301</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H7">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>501.9061323569373</v>
+        <v>511.1231415690633</v>
       </c>
       <c r="R7">
-        <v>501.9061323569373</v>
+        <v>4600.108274121571</v>
       </c>
       <c r="S7">
-        <v>0.07655357833342842</v>
+        <v>0.06626786920125464</v>
       </c>
       <c r="T7">
-        <v>0.07655357833342842</v>
+        <v>0.06626786920125463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H8">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>276.3833610830818</v>
+        <v>327.21664709706</v>
       </c>
       <c r="R8">
-        <v>276.3833610830818</v>
+        <v>2944.94982387354</v>
       </c>
       <c r="S8">
-        <v>0.04215556240241958</v>
+        <v>0.04242412093440916</v>
       </c>
       <c r="T8">
-        <v>0.04215556240241958</v>
+        <v>0.04242412093440914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H9">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>95.13449563250424</v>
+        <v>103.4388565183867</v>
       </c>
       <c r="R9">
-        <v>95.13449563250424</v>
+        <v>930.9497086654801</v>
       </c>
       <c r="S9">
-        <v>0.01451045443380794</v>
+        <v>0.01341100031793725</v>
       </c>
       <c r="T9">
-        <v>0.01451045443380794</v>
+        <v>0.01341100031793725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H10">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>444.2122557958675</v>
+        <v>568.3599283063022</v>
       </c>
       <c r="R10">
-        <v>444.2122557958675</v>
+        <v>5115.239354756721</v>
       </c>
       <c r="S10">
-        <v>0.06775378009638269</v>
+        <v>0.07368870302489977</v>
       </c>
       <c r="T10">
-        <v>0.06775378009638269</v>
+        <v>0.07368870302489974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H11">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>457.3856022441323</v>
+        <v>548.5840069500673</v>
       </c>
       <c r="R11">
-        <v>457.3856022441323</v>
+        <v>4937.256062550607</v>
       </c>
       <c r="S11">
-        <v>0.06976305383150305</v>
+        <v>0.0711247256519594</v>
       </c>
       <c r="T11">
-        <v>0.06976305383150305</v>
+        <v>0.07112472565195939</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H12">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>251.8673550881064</v>
+        <v>351.198771501948</v>
       </c>
       <c r="R12">
-        <v>251.8673550881064</v>
+        <v>3160.788943517532</v>
       </c>
       <c r="S12">
-        <v>0.03841624171202314</v>
+        <v>0.04553343873667618</v>
       </c>
       <c r="T12">
-        <v>0.03841624171202314</v>
+        <v>0.04553343873667617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H13">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>86.69578985761378</v>
+        <v>111.0200219246427</v>
       </c>
       <c r="R13">
-        <v>86.69578985761378</v>
+        <v>999.1801973217841</v>
       </c>
       <c r="S13">
-        <v>0.01322333502656505</v>
+        <v>0.01439390959493184</v>
       </c>
       <c r="T13">
-        <v>0.01322333502656505</v>
+        <v>0.01439390959493183</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H14">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N14">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q14">
-        <v>63.11463851295775</v>
+        <v>106.56097444468</v>
       </c>
       <c r="R14">
-        <v>63.11463851295775</v>
+        <v>959.0487700021201</v>
       </c>
       <c r="S14">
-        <v>0.009626603685231792</v>
+        <v>0.01381578751214521</v>
       </c>
       <c r="T14">
-        <v>0.009626603685231792</v>
+        <v>0.01381578751214521</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H15">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N15">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q15">
-        <v>64.98633608149639</v>
+        <v>102.853215777489</v>
       </c>
       <c r="R15">
-        <v>64.98633608149639</v>
+        <v>925.678941997401</v>
       </c>
       <c r="S15">
-        <v>0.009912085645288244</v>
+        <v>0.01333507113207101</v>
       </c>
       <c r="T15">
-        <v>0.009912085645288244</v>
+        <v>0.01333507113207101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H16">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N16">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q16">
-        <v>35.78585881454307</v>
+        <v>65.84574571705799</v>
       </c>
       <c r="R16">
-        <v>35.78585881454307</v>
+        <v>592.611711453522</v>
       </c>
       <c r="S16">
-        <v>0.005458262749497299</v>
+        <v>0.008536998053427952</v>
       </c>
       <c r="T16">
-        <v>0.005458262749497299</v>
+        <v>0.00853699805342795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H17">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N17">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q17">
-        <v>12.31792541980906</v>
+        <v>20.814982073796</v>
       </c>
       <c r="R17">
-        <v>12.31792541980906</v>
+        <v>187.334838664164</v>
       </c>
       <c r="S17">
-        <v>0.001878800053911412</v>
+        <v>0.00269869312756678</v>
       </c>
       <c r="T17">
-        <v>0.001878800053911412</v>
+        <v>0.00269869312756678</v>
       </c>
     </row>
   </sheetData>
